--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/10/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/10/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3323323323323323</v>
+        <v>0.2673267326732673</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>452.4524524524525</v>
+        <v>226.7426742674268</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006506506506506506</v>
+        <v>0.04957495749574958</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3533533533533533</v>
+        <v>0.9798979897989799</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1317.317317317317</v>
+        <v>1031.853185318532</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.1791791791792</v>
+        <v>106.2106210621062</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>561.5615615615616</v>
+        <v>852.4329432943293</v>
       </c>
     </row>
   </sheetData>
